--- a/Data/ROY Data/rookies_04_05.xlsx
+++ b/Data/ROY Data/rookies_04_05.xlsx
@@ -936,76 +936,76 @@
         <v>23</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>820</v>
+        <v>77</v>
       </c>
       <c r="H2">
-        <v>18055</v>
+        <v>1262</v>
       </c>
       <c r="I2">
-        <v>2588</v>
+        <v>184</v>
       </c>
       <c r="J2">
-        <v>5447</v>
+        <v>387</v>
       </c>
       <c r="K2">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="L2">
-        <v>444</v>
+        <v>31</v>
       </c>
       <c r="M2">
-        <v>1353</v>
+        <v>112</v>
       </c>
       <c r="N2">
-        <v>1909</v>
+        <v>152</v>
       </c>
       <c r="O2">
-        <v>1021</v>
+        <v>85</v>
       </c>
       <c r="P2">
-        <v>2884</v>
+        <v>221</v>
       </c>
       <c r="Q2">
-        <v>1077</v>
+        <v>64</v>
       </c>
       <c r="R2">
-        <v>1158</v>
+        <v>76</v>
       </c>
       <c r="S2">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="T2">
-        <v>1118</v>
+        <v>77</v>
       </c>
       <c r="U2">
-        <v>1947</v>
+        <v>156</v>
       </c>
       <c r="V2">
-        <v>6654</v>
+        <v>492</v>
       </c>
       <c r="W2">
         <v>0.475</v>
       </c>
       <c r="X2">
-        <v>0.282</v>
+        <v>0.387</v>
       </c>
       <c r="Y2">
-        <v>0.709</v>
+        <v>0.737</v>
       </c>
       <c r="Z2">
-        <v>22</v>
+        <v>16.4</v>
       </c>
       <c r="AA2">
-        <v>8.1</v>
+        <v>6.4</v>
       </c>
       <c r="AB2">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AC2">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AD2" t="s">
         <v>150</v>
@@ -1028,73 +1028,73 @@
         <v>24</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>59</v>
+      </c>
+      <c r="H3">
+        <v>736</v>
+      </c>
+      <c r="I3">
+        <v>76</v>
+      </c>
+      <c r="J3">
+        <v>175</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>3</v>
       </c>
-      <c r="G3">
-        <v>139</v>
-      </c>
-      <c r="H3">
-        <v>1585</v>
-      </c>
-      <c r="I3">
-        <v>156</v>
-      </c>
-      <c r="J3">
-        <v>385</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>4</v>
-      </c>
       <c r="M3">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="N3">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="O3">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="P3">
-        <v>395</v>
+        <v>185</v>
       </c>
       <c r="Q3">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="R3">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="S3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="T3">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="U3">
-        <v>300</v>
+        <v>157</v>
       </c>
       <c r="V3">
-        <v>389</v>
+        <v>196</v>
       </c>
       <c r="W3">
-        <v>0.405</v>
+        <v>0.434</v>
       </c>
       <c r="X3">
-        <v>0.25</v>
+        <v>0.333</v>
       </c>
       <c r="Y3">
-        <v>0.679</v>
+        <v>0.782</v>
       </c>
       <c r="Z3">
-        <v>11.4</v>
+        <v>12.5</v>
       </c>
       <c r="AA3">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AB3">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AC3">
         <v>0.3</v>
@@ -1120,76 +1120,76 @@
         <v>19</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1064</v>
+        <v>80</v>
       </c>
       <c r="H4">
-        <v>31650</v>
+        <v>1382</v>
       </c>
       <c r="I4">
-        <v>4003</v>
+        <v>172</v>
       </c>
       <c r="J4">
-        <v>9464</v>
+        <v>389</v>
       </c>
       <c r="K4">
-        <v>1535</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>4362</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>1674</v>
+        <v>121</v>
       </c>
       <c r="N4">
-        <v>2288</v>
+        <v>174</v>
       </c>
       <c r="O4">
-        <v>1044</v>
+        <v>89</v>
       </c>
       <c r="P4">
-        <v>5130</v>
+        <v>242</v>
       </c>
       <c r="Q4">
-        <v>2297</v>
+        <v>85</v>
       </c>
       <c r="R4">
-        <v>1584</v>
+        <v>70</v>
       </c>
       <c r="S4">
-        <v>331</v>
+        <v>18</v>
       </c>
       <c r="T4">
-        <v>1441</v>
+        <v>73</v>
       </c>
       <c r="U4">
-        <v>2130</v>
+        <v>150</v>
       </c>
       <c r="V4">
-        <v>11215</v>
+        <v>468</v>
       </c>
       <c r="W4">
-        <v>0.423</v>
+        <v>0.442</v>
       </c>
       <c r="X4">
-        <v>0.352</v>
+        <v>0.231</v>
       </c>
       <c r="Y4">
-        <v>0.732</v>
+        <v>0.695</v>
       </c>
       <c r="Z4">
-        <v>29.7</v>
+        <v>17.3</v>
       </c>
       <c r="AA4">
-        <v>10.5</v>
+        <v>5.9</v>
       </c>
       <c r="AB4">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="AC4">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="AD4" t="s">
         <v>150</v>
@@ -1298,76 +1298,76 @@
         <v>22</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>819</v>
+        <v>483</v>
       </c>
       <c r="I6">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="J6">
-        <v>241</v>
+        <v>124</v>
       </c>
       <c r="K6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L6">
+        <v>52</v>
+      </c>
+      <c r="M6">
+        <v>14</v>
+      </c>
+      <c r="N6">
+        <v>19</v>
+      </c>
+      <c r="O6">
+        <v>11</v>
+      </c>
+      <c r="P6">
+        <v>40</v>
+      </c>
+      <c r="Q6">
         <v>69</v>
       </c>
-      <c r="M6">
-        <v>24</v>
-      </c>
-      <c r="N6">
-        <v>33</v>
-      </c>
-      <c r="O6">
-        <v>21</v>
-      </c>
-      <c r="P6">
-        <v>71</v>
-      </c>
-      <c r="Q6">
-        <v>135</v>
-      </c>
       <c r="R6">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="S6">
         <v>1</v>
       </c>
       <c r="T6">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="U6">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="V6">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="W6">
-        <v>0.369</v>
+        <v>0.363</v>
       </c>
       <c r="X6">
-        <v>0.246</v>
+        <v>0.269</v>
       </c>
       <c r="Y6">
-        <v>0.727</v>
+        <v>0.737</v>
       </c>
       <c r="Z6">
-        <v>12.2</v>
+        <v>12.7</v>
       </c>
       <c r="AA6">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AB6">
         <v>1.1</v>
       </c>
       <c r="AC6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AD6" t="s">
         <v>150</v>
@@ -1390,76 +1390,76 @@
         <v>18</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>516</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>11146</v>
+        <v>384</v>
       </c>
       <c r="I7">
-        <v>1432</v>
+        <v>45</v>
       </c>
       <c r="J7">
-        <v>2409</v>
+        <v>78</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>383</v>
+        <v>19</v>
       </c>
       <c r="N7">
-        <v>766</v>
+        <v>40</v>
       </c>
       <c r="O7">
-        <v>1190</v>
+        <v>47</v>
       </c>
       <c r="P7">
-        <v>3631</v>
+        <v>118</v>
       </c>
       <c r="Q7">
-        <v>467</v>
+        <v>12</v>
       </c>
       <c r="R7">
-        <v>331</v>
+        <v>12</v>
       </c>
       <c r="S7">
-        <v>580</v>
+        <v>24</v>
       </c>
       <c r="T7">
-        <v>479</v>
+        <v>12</v>
       </c>
       <c r="U7">
-        <v>1626</v>
+        <v>87</v>
       </c>
       <c r="V7">
-        <v>3247</v>
+        <v>109</v>
       </c>
       <c r="W7">
-        <v>0.594</v>
+        <v>0.577</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="Z7">
-        <v>21.6</v>
+        <v>12.8</v>
       </c>
       <c r="AA7">
-        <v>6.3</v>
+        <v>3.6</v>
       </c>
       <c r="AB7">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="AC7">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AD7" t="s">
         <v>150</v>
@@ -1571,76 +1571,76 @@
         <v>24</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>792</v>
+        <v>82</v>
       </c>
       <c r="H9">
-        <v>13356</v>
+        <v>1553</v>
       </c>
       <c r="I9">
-        <v>1749</v>
+        <v>247</v>
       </c>
       <c r="J9">
-        <v>3768</v>
+        <v>463</v>
       </c>
       <c r="K9">
-        <v>797</v>
+        <v>39</v>
       </c>
       <c r="L9">
-        <v>1923</v>
+        <v>92</v>
       </c>
       <c r="M9">
-        <v>337</v>
+        <v>56</v>
       </c>
       <c r="N9">
-        <v>432</v>
+        <v>71</v>
       </c>
       <c r="O9">
-        <v>622</v>
+        <v>108</v>
       </c>
       <c r="P9">
-        <v>2371</v>
+        <v>285</v>
       </c>
       <c r="Q9">
-        <v>552</v>
+        <v>48</v>
       </c>
       <c r="R9">
-        <v>285</v>
+        <v>39</v>
       </c>
       <c r="S9">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="T9">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="U9">
-        <v>1307</v>
+        <v>220</v>
       </c>
       <c r="V9">
-        <v>4632</v>
+        <v>589</v>
       </c>
       <c r="W9">
-        <v>0.464</v>
+        <v>0.533</v>
       </c>
       <c r="X9">
-        <v>0.414</v>
+        <v>0.424</v>
       </c>
       <c r="Y9">
-        <v>0.78</v>
+        <v>0.789</v>
       </c>
       <c r="Z9">
-        <v>16.9</v>
+        <v>18.9</v>
       </c>
       <c r="AA9">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="AB9">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AC9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD9" t="s">
         <v>150</v>
@@ -1663,76 +1663,76 @@
         <v>24</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="H10">
-        <v>789</v>
+        <v>219</v>
       </c>
       <c r="I10">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="J10">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N10">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="Q10">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="R10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="S10">
         <v>1</v>
       </c>
       <c r="T10">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="U10">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="V10">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="W10">
-        <v>0.387</v>
+        <v>0.467</v>
       </c>
       <c r="X10">
-        <v>0.235</v>
+        <v>0.273</v>
       </c>
       <c r="Y10">
-        <v>0.571</v>
+        <v>0.737</v>
       </c>
       <c r="Z10">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AA10">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="AB10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AC10">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AD10" t="s">
         <v>150</v>
@@ -1755,19 +1755,19 @@
         <v>19</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>3</v>
       </c>
-      <c r="G11">
-        <v>69</v>
-      </c>
       <c r="H11">
-        <v>848</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>254</v>
+        <v>4</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1776,52 +1776,52 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>343</v>
+        <v>10</v>
       </c>
       <c r="W11">
-        <v>0.539</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>0.775</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>12.3</v>
+        <v>1.7</v>
       </c>
       <c r="AA11">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="AB11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="s">
         <v>150</v>
@@ -2025,76 +2025,76 @@
         <v>21</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="H14">
-        <v>10432</v>
+        <v>2376</v>
       </c>
       <c r="I14">
-        <v>1343</v>
+        <v>302</v>
       </c>
       <c r="J14">
-        <v>2571</v>
+        <v>642</v>
       </c>
       <c r="K14">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="L14">
-        <v>301</v>
+        <v>56</v>
       </c>
       <c r="M14">
-        <v>763</v>
+        <v>190</v>
       </c>
       <c r="N14">
-        <v>980</v>
+        <v>231</v>
       </c>
       <c r="O14">
-        <v>732</v>
+        <v>195</v>
       </c>
       <c r="P14">
-        <v>1850</v>
+        <v>482</v>
       </c>
       <c r="Q14">
-        <v>609</v>
+        <v>151</v>
       </c>
       <c r="R14">
-        <v>339</v>
+        <v>74</v>
       </c>
       <c r="S14">
+        <v>35</v>
+      </c>
+      <c r="T14">
+        <v>106</v>
+      </c>
+      <c r="U14">
         <v>184</v>
       </c>
-      <c r="T14">
-        <v>439</v>
-      </c>
-      <c r="U14">
-        <v>725</v>
-      </c>
       <c r="V14">
-        <v>3548</v>
+        <v>807</v>
       </c>
       <c r="W14">
-        <v>0.522</v>
+        <v>0.47</v>
       </c>
       <c r="X14">
-        <v>0.329</v>
+        <v>0.232</v>
       </c>
       <c r="Y14">
-        <v>0.779</v>
+        <v>0.823</v>
       </c>
       <c r="Z14">
-        <v>26.7</v>
+        <v>29.7</v>
       </c>
       <c r="AA14">
-        <v>9.1</v>
+        <v>10.1</v>
       </c>
       <c r="AB14">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="AC14">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AD14" t="s">
         <v>150</v>
@@ -2117,76 +2117,76 @@
         <v>24</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>910</v>
+        <v>82</v>
       </c>
       <c r="H15">
-        <v>18603</v>
+        <v>1396</v>
       </c>
       <c r="I15">
-        <v>2212</v>
+        <v>190</v>
       </c>
       <c r="J15">
-        <v>4146</v>
+        <v>354</v>
       </c>
       <c r="K15">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>914</v>
+        <v>83</v>
       </c>
       <c r="N15">
-        <v>1265</v>
+        <v>118</v>
       </c>
       <c r="O15">
-        <v>1766</v>
+        <v>156</v>
       </c>
       <c r="P15">
-        <v>4701</v>
+        <v>376</v>
       </c>
       <c r="Q15">
-        <v>939</v>
+        <v>32</v>
       </c>
       <c r="R15">
-        <v>446</v>
+        <v>34</v>
       </c>
       <c r="S15">
-        <v>469</v>
+        <v>50</v>
       </c>
       <c r="T15">
-        <v>878</v>
+        <v>62</v>
       </c>
       <c r="U15">
-        <v>2507</v>
+        <v>252</v>
       </c>
       <c r="V15">
-        <v>5359</v>
+        <v>463</v>
       </c>
       <c r="W15">
-        <v>0.534</v>
+        <v>0.537</v>
       </c>
       <c r="X15">
-        <v>0.208</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>0.723</v>
+        <v>0.703</v>
       </c>
       <c r="Z15">
-        <v>20.4</v>
+        <v>17</v>
       </c>
       <c r="AA15">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AB15">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AD15" t="s">
         <v>150</v>
@@ -2298,76 +2298,76 @@
         <v>22</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>507</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>11580</v>
+        <v>459</v>
       </c>
       <c r="I17">
-        <v>1472</v>
+        <v>42</v>
       </c>
       <c r="J17">
-        <v>3669</v>
+        <v>117</v>
       </c>
       <c r="K17">
-        <v>678</v>
+        <v>9</v>
       </c>
       <c r="L17">
-        <v>1856</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>493</v>
+        <v>23</v>
       </c>
       <c r="N17">
-        <v>650</v>
+        <v>40</v>
       </c>
       <c r="O17">
-        <v>287</v>
+        <v>13</v>
       </c>
       <c r="P17">
-        <v>1815</v>
+        <v>55</v>
       </c>
       <c r="Q17">
-        <v>887</v>
+        <v>38</v>
       </c>
       <c r="R17">
-        <v>461</v>
+        <v>22</v>
       </c>
       <c r="S17">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="T17">
-        <v>509</v>
+        <v>23</v>
       </c>
       <c r="U17">
-        <v>827</v>
+        <v>44</v>
       </c>
       <c r="V17">
-        <v>4115</v>
+        <v>116</v>
       </c>
       <c r="W17">
-        <v>0.401</v>
+        <v>0.359</v>
       </c>
       <c r="X17">
-        <v>0.365</v>
+        <v>0.257</v>
       </c>
       <c r="Y17">
-        <v>0.758</v>
+        <v>0.575</v>
       </c>
       <c r="Z17">
-        <v>22.8</v>
+        <v>15.3</v>
       </c>
       <c r="AA17">
-        <v>8.1</v>
+        <v>3.9</v>
       </c>
       <c r="AB17">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="AC17">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AD17" t="s">
         <v>150</v>
@@ -2390,76 +2390,76 @@
         <v>19</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>902</v>
+        <v>61</v>
       </c>
       <c r="H18">
-        <v>30941</v>
+        <v>1663</v>
       </c>
       <c r="I18">
-        <v>5130</v>
+        <v>280</v>
       </c>
       <c r="J18">
-        <v>11257</v>
+        <v>645</v>
       </c>
       <c r="K18">
-        <v>658</v>
+        <v>31</v>
       </c>
       <c r="L18">
-        <v>1982</v>
+        <v>117</v>
       </c>
       <c r="M18">
-        <v>2443</v>
+        <v>120</v>
       </c>
       <c r="N18">
-        <v>3175</v>
+        <v>162</v>
       </c>
       <c r="O18">
-        <v>1462</v>
+        <v>92</v>
       </c>
       <c r="P18">
-        <v>5468</v>
+        <v>322</v>
       </c>
       <c r="Q18">
-        <v>2042</v>
+        <v>135</v>
       </c>
       <c r="R18">
-        <v>880</v>
+        <v>48</v>
       </c>
       <c r="S18">
-        <v>444</v>
+        <v>27</v>
       </c>
       <c r="T18">
-        <v>1459</v>
+        <v>118</v>
       </c>
       <c r="U18">
-        <v>1499</v>
+        <v>98</v>
       </c>
       <c r="V18">
-        <v>13361</v>
+        <v>711</v>
       </c>
       <c r="W18">
-        <v>0.456</v>
+        <v>0.434</v>
       </c>
       <c r="X18">
-        <v>0.332</v>
+        <v>0.265</v>
       </c>
       <c r="Y18">
-        <v>0.769</v>
+        <v>0.741</v>
       </c>
       <c r="Z18">
-        <v>34.3</v>
+        <v>27.3</v>
       </c>
       <c r="AA18">
-        <v>14.8</v>
+        <v>11.7</v>
       </c>
       <c r="AB18">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="AC18">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AD18" t="s">
         <v>150</v>
@@ -2482,76 +2482,76 @@
         <v>22</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>606</v>
+        <v>82</v>
       </c>
       <c r="H19">
-        <v>15526</v>
+        <v>2177</v>
       </c>
       <c r="I19">
-        <v>1353</v>
+        <v>172</v>
       </c>
       <c r="J19">
-        <v>3440</v>
+        <v>488</v>
       </c>
       <c r="K19">
-        <v>649</v>
+        <v>94</v>
       </c>
       <c r="L19">
-        <v>1788</v>
+        <v>265</v>
       </c>
       <c r="M19">
-        <v>591</v>
+        <v>49</v>
       </c>
       <c r="N19">
-        <v>754</v>
+        <v>67</v>
       </c>
       <c r="O19">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="P19">
-        <v>1364</v>
+        <v>213</v>
       </c>
       <c r="Q19">
-        <v>2690</v>
+        <v>398</v>
       </c>
       <c r="R19">
-        <v>471</v>
+        <v>82</v>
       </c>
       <c r="S19">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="T19">
-        <v>925</v>
+        <v>119</v>
       </c>
       <c r="U19">
-        <v>965</v>
+        <v>205</v>
       </c>
       <c r="V19">
-        <v>3946</v>
+        <v>487</v>
       </c>
       <c r="W19">
-        <v>0.393</v>
+        <v>0.352</v>
       </c>
       <c r="X19">
-        <v>0.363</v>
+        <v>0.355</v>
       </c>
       <c r="Y19">
-        <v>0.784</v>
+        <v>0.731</v>
       </c>
       <c r="Z19">
-        <v>25.6</v>
+        <v>26.5</v>
       </c>
       <c r="AA19">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AB19">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AC19">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="AD19" t="s">
         <v>150</v>
@@ -2663,19 +2663,19 @@
         <v>23</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="H21">
-        <v>435</v>
+        <v>139</v>
       </c>
       <c r="I21">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="J21">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2684,49 +2684,49 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N21">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="O21">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="P21">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>4</v>
+      </c>
+      <c r="T21">
         <v>8</v>
       </c>
-      <c r="R21">
-        <v>6</v>
-      </c>
-      <c r="S21">
-        <v>19</v>
-      </c>
-      <c r="T21">
-        <v>20</v>
-      </c>
       <c r="U21">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="V21">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="W21">
-        <v>0.447</v>
+        <v>0.367</v>
       </c>
       <c r="Y21">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Z21">
-        <v>6.7</v>
+        <v>5.6</v>
       </c>
       <c r="AA21">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
         <v>0.1</v>
@@ -2752,76 +2752,73 @@
         <v>22</v>
       </c>
       <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>28</v>
+      </c>
+      <c r="I22">
         <v>2</v>
       </c>
-      <c r="G22">
-        <v>14</v>
-      </c>
-      <c r="H22">
-        <v>73</v>
-      </c>
-      <c r="I22">
+      <c r="J22">
         <v>6</v>
       </c>
-      <c r="J22">
-        <v>13</v>
-      </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
         <v>2</v>
       </c>
-      <c r="P22">
-        <v>8</v>
-      </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V22">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="W22">
-        <v>0.462</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="Y22">
-        <v>0.615</v>
+        <v>0.6</v>
       </c>
       <c r="Z22">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="AA22">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AB22">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AC22">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="s">
         <v>150</v>
@@ -2936,76 +2933,76 @@
         <v>23</v>
       </c>
       <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <v>441</v>
+      </c>
+      <c r="I24">
+        <v>37</v>
+      </c>
+      <c r="J24">
+        <v>127</v>
+      </c>
+      <c r="K24">
+        <v>14</v>
+      </c>
+      <c r="L24">
+        <v>54</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>8</v>
+      </c>
+      <c r="O24">
+        <v>16</v>
+      </c>
+      <c r="P24">
+        <v>61</v>
+      </c>
+      <c r="Q24">
+        <v>20</v>
+      </c>
+      <c r="R24">
+        <v>13</v>
+      </c>
+      <c r="S24">
         <v>2</v>
       </c>
-      <c r="G24">
-        <v>42</v>
-      </c>
-      <c r="H24">
-        <v>588</v>
-      </c>
-      <c r="I24">
-        <v>53</v>
-      </c>
-      <c r="J24">
-        <v>181</v>
-      </c>
-      <c r="K24">
+      <c r="T24">
         <v>17</v>
       </c>
-      <c r="L24">
-        <v>76</v>
-      </c>
-      <c r="M24">
-        <v>10</v>
-      </c>
-      <c r="N24">
-        <v>14</v>
-      </c>
-      <c r="O24">
-        <v>24</v>
-      </c>
-      <c r="P24">
-        <v>85</v>
-      </c>
-      <c r="Q24">
-        <v>27</v>
-      </c>
-      <c r="R24">
-        <v>16</v>
-      </c>
-      <c r="S24">
-        <v>3</v>
-      </c>
-      <c r="T24">
-        <v>20</v>
-      </c>
       <c r="U24">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="V24">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="W24">
-        <v>0.293</v>
+        <v>0.291</v>
       </c>
       <c r="X24">
-        <v>0.224</v>
+        <v>0.259</v>
       </c>
       <c r="Y24">
-        <v>0.714</v>
+        <v>0.625</v>
       </c>
       <c r="Z24">
-        <v>14</v>
+        <v>19.2</v>
       </c>
       <c r="AA24">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="AB24">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="AC24">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AD24" t="s">
         <v>150</v>
@@ -3028,76 +3025,76 @@
         <v>21</v>
       </c>
       <c r="F25">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>744</v>
+        <v>82</v>
       </c>
       <c r="H25">
-        <v>20366</v>
+        <v>2002</v>
       </c>
       <c r="I25">
-        <v>3931</v>
+        <v>434</v>
       </c>
       <c r="J25">
-        <v>9092</v>
+        <v>1056</v>
       </c>
       <c r="K25">
-        <v>1171</v>
+        <v>134</v>
       </c>
       <c r="L25">
-        <v>2921</v>
+        <v>331</v>
       </c>
       <c r="M25">
-        <v>2051</v>
+        <v>233</v>
       </c>
       <c r="N25">
-        <v>2394</v>
+        <v>270</v>
       </c>
       <c r="O25">
-        <v>333</v>
+        <v>55</v>
       </c>
       <c r="P25">
-        <v>1851</v>
+        <v>215</v>
       </c>
       <c r="Q25">
-        <v>1868</v>
+        <v>164</v>
       </c>
       <c r="R25">
-        <v>508</v>
+        <v>53</v>
       </c>
       <c r="S25">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="T25">
-        <v>1551</v>
+        <v>186</v>
       </c>
       <c r="U25">
-        <v>1720</v>
+        <v>224</v>
       </c>
       <c r="V25">
-        <v>11084</v>
+        <v>1235</v>
       </c>
       <c r="W25">
-        <v>0.432</v>
+        <v>0.411</v>
       </c>
       <c r="X25">
-        <v>0.401</v>
+        <v>0.405</v>
       </c>
       <c r="Y25">
-        <v>0.857</v>
+        <v>0.863</v>
       </c>
       <c r="Z25">
-        <v>27.4</v>
+        <v>24.4</v>
       </c>
       <c r="AA25">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="AB25">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AC25">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AD25" t="s">
         <v>150</v>
@@ -3120,76 +3117,76 @@
         <v>21</v>
       </c>
       <c r="F26">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>985</v>
+        <v>76</v>
       </c>
       <c r="H26">
-        <v>23963</v>
+        <v>1173</v>
       </c>
       <c r="I26">
-        <v>3486</v>
+        <v>157</v>
       </c>
       <c r="J26">
-        <v>8072</v>
+        <v>366</v>
       </c>
       <c r="K26">
-        <v>832</v>
+        <v>44</v>
       </c>
       <c r="L26">
-        <v>2558</v>
+        <v>131</v>
       </c>
       <c r="M26">
-        <v>2793</v>
+        <v>78</v>
       </c>
       <c r="N26">
-        <v>3507</v>
+        <v>103</v>
       </c>
       <c r="O26">
-        <v>290</v>
+        <v>28</v>
       </c>
       <c r="P26">
-        <v>2151</v>
+        <v>102</v>
       </c>
       <c r="Q26">
-        <v>3869</v>
+        <v>169</v>
       </c>
       <c r="R26">
-        <v>998</v>
+        <v>77</v>
       </c>
       <c r="S26">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="T26">
-        <v>1682</v>
+        <v>82</v>
       </c>
       <c r="U26">
-        <v>2171</v>
+        <v>139</v>
       </c>
       <c r="V26">
-        <v>10597</v>
+        <v>436</v>
       </c>
       <c r="W26">
-        <v>0.432</v>
+        <v>0.429</v>
       </c>
       <c r="X26">
-        <v>0.325</v>
+        <v>0.336</v>
       </c>
       <c r="Y26">
-        <v>0.796</v>
+        <v>0.757</v>
       </c>
       <c r="Z26">
-        <v>24.3</v>
+        <v>15.4</v>
       </c>
       <c r="AA26">
-        <v>10.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB26">
+        <v>1.3</v>
+      </c>
+      <c r="AC26">
         <v>2.2</v>
-      </c>
-      <c r="AC26">
-        <v>3.9</v>
       </c>
       <c r="AD26" t="s">
         <v>150</v>
@@ -3212,19 +3209,19 @@
         <v>22</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c r="H27">
-        <v>2686</v>
+        <v>760</v>
       </c>
       <c r="I27">
-        <v>374</v>
+        <v>106</v>
       </c>
       <c r="J27">
-        <v>706</v>
+        <v>184</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -3233,52 +3230,52 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="N27">
-        <v>383</v>
+        <v>91</v>
       </c>
       <c r="O27">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="P27">
-        <v>549</v>
+        <v>135</v>
       </c>
       <c r="Q27">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="R27">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="S27">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="T27">
-        <v>216</v>
+        <v>53</v>
       </c>
       <c r="U27">
-        <v>538</v>
+        <v>134</v>
       </c>
       <c r="V27">
-        <v>949</v>
+        <v>264</v>
       </c>
       <c r="W27">
-        <v>0.53</v>
+        <v>0.576</v>
       </c>
       <c r="Y27">
-        <v>0.525</v>
+        <v>0.571</v>
       </c>
       <c r="Z27">
-        <v>14.2</v>
+        <v>17.7</v>
       </c>
       <c r="AA27">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="AB27">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AC27">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD27" t="s">
         <v>150</v>
@@ -3301,76 +3298,76 @@
         <v>19</v>
       </c>
       <c r="F28">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>1108</v>
+        <v>82</v>
       </c>
       <c r="H28">
-        <v>37207</v>
+        <v>2670</v>
       </c>
       <c r="I28">
-        <v>6727</v>
+        <v>352</v>
       </c>
       <c r="J28">
-        <v>11476</v>
+        <v>677</v>
       </c>
       <c r="K28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>5125</v>
+        <v>277</v>
       </c>
       <c r="N28">
-        <v>9071</v>
+        <v>413</v>
       </c>
       <c r="O28">
-        <v>3831</v>
+        <v>287</v>
       </c>
       <c r="P28">
-        <v>13649</v>
+        <v>823</v>
       </c>
       <c r="Q28">
-        <v>1579</v>
+        <v>75</v>
       </c>
       <c r="R28">
-        <v>1014</v>
+        <v>77</v>
       </c>
       <c r="S28">
-        <v>2128</v>
+        <v>136</v>
       </c>
       <c r="T28">
-        <v>3135</v>
+        <v>165</v>
       </c>
       <c r="U28">
-        <v>3582</v>
+        <v>232</v>
       </c>
       <c r="V28">
-        <v>18588</v>
+        <v>981</v>
       </c>
       <c r="W28">
-        <v>0.586</v>
+        <v>0.52</v>
       </c>
       <c r="X28">
-        <v>0.132</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>0.5649999999999999</v>
+        <v>0.671</v>
       </c>
       <c r="Z28">
-        <v>33.6</v>
+        <v>32.6</v>
       </c>
       <c r="AA28">
-        <v>16.8</v>
+        <v>12</v>
       </c>
       <c r="AB28">
-        <v>12.3</v>
+        <v>10</v>
       </c>
       <c r="AC28">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AD28" t="s">
         <v>150</v>
@@ -3393,76 +3390,76 @@
         <v>19</v>
       </c>
       <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>67</v>
+      </c>
+      <c r="H29">
+        <v>873</v>
+      </c>
+      <c r="I29">
+        <v>116</v>
+      </c>
+      <c r="J29">
+        <v>287</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>44</v>
+      </c>
+      <c r="N29">
+        <v>101</v>
+      </c>
+      <c r="O29">
+        <v>73</v>
+      </c>
+      <c r="P29">
+        <v>197</v>
+      </c>
+      <c r="Q29">
+        <v>43</v>
+      </c>
+      <c r="R29">
+        <v>25</v>
+      </c>
+      <c r="S29">
+        <v>18</v>
+      </c>
+      <c r="T29">
+        <v>52</v>
+      </c>
+      <c r="U29">
+        <v>96</v>
+      </c>
+      <c r="V29">
+        <v>278</v>
+      </c>
+      <c r="W29">
+        <v>0.404</v>
+      </c>
+      <c r="X29">
+        <v>0.333</v>
+      </c>
+      <c r="Y29">
+        <v>0.436</v>
+      </c>
+      <c r="Z29">
         <v>13</v>
       </c>
-      <c r="G29">
-        <v>800</v>
-      </c>
-      <c r="H29">
-        <v>14232</v>
-      </c>
-      <c r="I29">
-        <v>2078</v>
-      </c>
-      <c r="J29">
-        <v>4486</v>
-      </c>
-      <c r="K29">
-        <v>55</v>
-      </c>
-      <c r="L29">
-        <v>188</v>
-      </c>
-      <c r="M29">
-        <v>1139</v>
-      </c>
-      <c r="N29">
-        <v>1626</v>
-      </c>
-      <c r="O29">
-        <v>1387</v>
-      </c>
-      <c r="P29">
-        <v>4314</v>
-      </c>
-      <c r="Q29">
-        <v>556</v>
-      </c>
-      <c r="R29">
-        <v>326</v>
-      </c>
-      <c r="S29">
-        <v>454</v>
-      </c>
-      <c r="T29">
-        <v>691</v>
-      </c>
-      <c r="U29">
-        <v>1456</v>
-      </c>
-      <c r="V29">
-        <v>5350</v>
-      </c>
-      <c r="W29">
-        <v>0.463</v>
-      </c>
-      <c r="X29">
-        <v>0.293</v>
-      </c>
-      <c r="Y29">
-        <v>0.7</v>
-      </c>
-      <c r="Z29">
-        <v>17.8</v>
-      </c>
       <c r="AA29">
-        <v>6.7</v>
+        <v>4.1</v>
       </c>
       <c r="AB29">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
       <c r="AC29">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD29" t="s">
         <v>150</v>
@@ -3485,76 +3482,76 @@
         <v>21</v>
       </c>
       <c r="F30">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>1123</v>
+        <v>82</v>
       </c>
       <c r="H30">
-        <v>37308</v>
+        <v>2686</v>
       </c>
       <c r="I30">
-        <v>4868</v>
+        <v>269</v>
       </c>
       <c r="J30">
-        <v>10451</v>
+        <v>546</v>
       </c>
       <c r="K30">
-        <v>999</v>
+        <v>47</v>
       </c>
       <c r="L30">
-        <v>2992</v>
+        <v>142</v>
       </c>
       <c r="M30">
-        <v>2785</v>
+        <v>156</v>
       </c>
       <c r="N30">
-        <v>3926</v>
+        <v>210</v>
       </c>
       <c r="O30">
-        <v>1049</v>
+        <v>89</v>
       </c>
       <c r="P30">
-        <v>5684</v>
+        <v>464</v>
       </c>
       <c r="Q30">
-        <v>4850</v>
+        <v>246</v>
       </c>
       <c r="R30">
-        <v>1671</v>
+        <v>138</v>
       </c>
       <c r="S30">
-        <v>568</v>
+        <v>48</v>
       </c>
       <c r="T30">
-        <v>2130</v>
+        <v>139</v>
       </c>
       <c r="U30">
-        <v>2041</v>
+        <v>204</v>
       </c>
       <c r="V30">
-        <v>13520</v>
+        <v>741</v>
       </c>
       <c r="W30">
-        <v>0.466</v>
+        <v>0.493</v>
       </c>
       <c r="X30">
-        <v>0.334</v>
+        <v>0.331</v>
       </c>
       <c r="Y30">
-        <v>0.709</v>
+        <v>0.743</v>
       </c>
       <c r="Z30">
-        <v>33.2</v>
+        <v>32.8</v>
       </c>
       <c r="AA30">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AB30">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="AC30">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="AD30" t="s">
         <v>150</v>
@@ -3577,76 +3574,73 @@
         <v>24</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c r="H31">
-        <v>1566</v>
+        <v>58</v>
       </c>
       <c r="I31">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="J31">
-        <v>383</v>
+        <v>14</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="P31">
-        <v>351</v>
+        <v>8</v>
       </c>
       <c r="Q31">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="T31">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="U31">
-        <v>286</v>
+        <v>13</v>
       </c>
       <c r="V31">
-        <v>414</v>
+        <v>15</v>
       </c>
       <c r="W31">
-        <v>0.47</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
+        <v>0.429</v>
       </c>
       <c r="Y31">
-        <v>0.607</v>
+        <v>0.75</v>
       </c>
       <c r="Z31">
-        <v>6.7</v>
+        <v>3.9</v>
       </c>
       <c r="AA31">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AC31">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="s">
         <v>150</v>
@@ -3669,76 +3663,76 @@
         <v>23</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>492</v>
+        <v>62</v>
       </c>
       <c r="H32">
-        <v>6162</v>
+        <v>809</v>
       </c>
       <c r="I32">
-        <v>622</v>
+        <v>85</v>
       </c>
       <c r="J32">
-        <v>1531</v>
+        <v>198</v>
       </c>
       <c r="K32">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>449</v>
+        <v>9</v>
       </c>
       <c r="M32">
-        <v>235</v>
+        <v>47</v>
       </c>
       <c r="N32">
-        <v>333</v>
+        <v>67</v>
       </c>
       <c r="O32">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="P32">
-        <v>557</v>
+        <v>84</v>
       </c>
       <c r="Q32">
-        <v>501</v>
+        <v>103</v>
       </c>
       <c r="R32">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="S32">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="T32">
-        <v>255</v>
+        <v>58</v>
       </c>
       <c r="U32">
-        <v>757</v>
+        <v>140</v>
       </c>
       <c r="V32">
-        <v>1641</v>
+        <v>220</v>
       </c>
       <c r="W32">
-        <v>0.406</v>
+        <v>0.429</v>
       </c>
       <c r="X32">
-        <v>0.361</v>
+        <v>0.333</v>
       </c>
       <c r="Y32">
-        <v>0.706</v>
+        <v>0.701</v>
       </c>
       <c r="Z32">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA32">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AB32">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AC32">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="AD32" t="s">
         <v>150</v>
@@ -3761,76 +3755,76 @@
         <v>23</v>
       </c>
       <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>43</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>27</v>
+      </c>
+      <c r="K33">
         <v>4</v>
       </c>
-      <c r="G33">
-        <v>73</v>
-      </c>
-      <c r="H33">
-        <v>724</v>
-      </c>
-      <c r="I33">
-        <v>84</v>
-      </c>
-      <c r="J33">
-        <v>235</v>
-      </c>
-      <c r="K33">
-        <v>32</v>
-      </c>
       <c r="L33">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="M33">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="N33">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="O33">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="P33">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="Q33">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="R33">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="V33">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="W33">
-        <v>0.357</v>
+        <v>0.37</v>
       </c>
       <c r="X33">
-        <v>0.36</v>
+        <v>0.667</v>
       </c>
       <c r="Y33">
-        <v>0.732</v>
+        <v>0.833</v>
       </c>
       <c r="Z33">
-        <v>9.9</v>
+        <v>4.3</v>
       </c>
       <c r="AA33">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AB33">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AC33">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="AD33" t="s">
         <v>150</v>
@@ -3853,76 +3847,76 @@
         <v>20</v>
       </c>
       <c r="F34">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>915</v>
+        <v>71</v>
       </c>
       <c r="H34">
-        <v>26299</v>
+        <v>1051</v>
       </c>
       <c r="I34">
-        <v>6161</v>
+        <v>195</v>
       </c>
       <c r="J34">
-        <v>12344</v>
+        <v>369</v>
       </c>
       <c r="K34">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>85</v>
+      </c>
+      <c r="N34">
+        <v>135</v>
+      </c>
+      <c r="O34">
+        <v>119</v>
+      </c>
+      <c r="P34">
+        <v>312</v>
+      </c>
+      <c r="Q34">
+        <v>24</v>
+      </c>
+      <c r="R34">
+        <v>22</v>
+      </c>
+      <c r="S34">
+        <v>55</v>
+      </c>
+      <c r="T34">
         <v>66</v>
       </c>
-      <c r="M34">
-        <v>2013</v>
-      </c>
-      <c r="N34">
-        <v>2833</v>
-      </c>
-      <c r="O34">
-        <v>2054</v>
-      </c>
-      <c r="P34">
-        <v>7690</v>
-      </c>
-      <c r="Q34">
-        <v>1347</v>
-      </c>
-      <c r="R34">
-        <v>628</v>
-      </c>
-      <c r="S34">
-        <v>1093</v>
-      </c>
-      <c r="T34">
-        <v>1211</v>
-      </c>
       <c r="U34">
-        <v>2347</v>
+        <v>195</v>
       </c>
       <c r="V34">
-        <v>14343</v>
+        <v>475</v>
       </c>
       <c r="W34">
-        <v>0.499</v>
+        <v>0.528</v>
       </c>
       <c r="X34">
-        <v>0.121</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>0.711</v>
+        <v>0.63</v>
       </c>
       <c r="Z34">
-        <v>28.7</v>
+        <v>14.8</v>
       </c>
       <c r="AA34">
-        <v>15.7</v>
+        <v>6.7</v>
       </c>
       <c r="AB34">
-        <v>8.4</v>
+        <v>4.4</v>
       </c>
       <c r="AC34">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD34" t="s">
         <v>150</v>
@@ -4129,19 +4123,19 @@
         <v>24</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="H37">
-        <v>569</v>
+        <v>356</v>
       </c>
       <c r="I37">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="J37">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -4150,52 +4144,52 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N37">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="O37">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="P37">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S37">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T37">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="U37">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="V37">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="W37">
-        <v>0.467</v>
+        <v>0.48</v>
       </c>
       <c r="X37">
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>0.636</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="Z37">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AA37">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AB37">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AC37">
         <v>0.2</v>
@@ -4221,76 +4215,76 @@
         <v>22</v>
       </c>
       <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>32</v>
+      </c>
+      <c r="H38">
+        <v>523</v>
+      </c>
+      <c r="I38">
+        <v>54</v>
+      </c>
+      <c r="J38">
+        <v>124</v>
+      </c>
+      <c r="K38">
         <v>4</v>
       </c>
-      <c r="G38">
-        <v>143</v>
-      </c>
-      <c r="H38">
-        <v>2351</v>
-      </c>
-      <c r="I38">
-        <v>251</v>
-      </c>
-      <c r="J38">
-        <v>567</v>
-      </c>
-      <c r="K38">
-        <v>14</v>
-      </c>
       <c r="L38">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M38">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="N38">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="O38">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="P38">
-        <v>492</v>
+        <v>108</v>
       </c>
       <c r="Q38">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="R38">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="S38">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="T38">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="U38">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="V38">
-        <v>643</v>
+        <v>135</v>
       </c>
       <c r="W38">
-        <v>0.443</v>
+        <v>0.435</v>
       </c>
       <c r="X38">
-        <v>0.292</v>
+        <v>0.364</v>
       </c>
       <c r="Y38">
-        <v>0.658</v>
+        <v>0.548</v>
       </c>
       <c r="Z38">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="AA38">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AB38">
         <v>3.4</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD38" t="s">
         <v>150</v>
@@ -4399,76 +4393,76 @@
         <v>21</v>
       </c>
       <c r="F40">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>419</v>
+        <v>75</v>
       </c>
       <c r="H40">
-        <v>10547</v>
+        <v>1965</v>
       </c>
       <c r="I40">
-        <v>1724</v>
+        <v>281</v>
       </c>
       <c r="J40">
-        <v>3493</v>
+        <v>570</v>
       </c>
       <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
         <v>2</v>
       </c>
-      <c r="L40">
-        <v>14</v>
-      </c>
       <c r="M40">
-        <v>760</v>
+        <v>185</v>
       </c>
       <c r="N40">
-        <v>1041</v>
+        <v>255</v>
       </c>
       <c r="O40">
-        <v>772</v>
+        <v>161</v>
       </c>
       <c r="P40">
-        <v>2261</v>
+        <v>401</v>
       </c>
       <c r="Q40">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="R40">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="S40">
-        <v>286</v>
+        <v>63</v>
       </c>
       <c r="T40">
-        <v>497</v>
+        <v>112</v>
       </c>
       <c r="U40">
-        <v>1251</v>
+        <v>280</v>
       </c>
       <c r="V40">
-        <v>4210</v>
+        <v>747</v>
       </c>
       <c r="W40">
-        <v>0.494</v>
+        <v>0.493</v>
       </c>
       <c r="X40">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>0.73</v>
+        <v>0.725</v>
       </c>
       <c r="Z40">
-        <v>25.2</v>
+        <v>26.2</v>
       </c>
       <c r="AA40">
         <v>10</v>
       </c>
       <c r="AB40">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AC40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD40" t="s">
         <v>150</v>
@@ -4577,76 +4571,76 @@
         <v>19</v>
       </c>
       <c r="F42">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>833</v>
+        <v>30</v>
       </c>
       <c r="H42">
-        <v>17188</v>
+        <v>814</v>
       </c>
       <c r="I42">
-        <v>2149</v>
+        <v>89</v>
       </c>
       <c r="J42">
-        <v>4419</v>
+        <v>215</v>
       </c>
       <c r="K42">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="M42">
-        <v>920</v>
+        <v>44</v>
       </c>
       <c r="N42">
-        <v>1159</v>
+        <v>59</v>
       </c>
       <c r="O42">
-        <v>491</v>
+        <v>22</v>
       </c>
       <c r="P42">
-        <v>1989</v>
+        <v>89</v>
       </c>
       <c r="Q42">
-        <v>2483</v>
+        <v>151</v>
       </c>
       <c r="R42">
-        <v>586</v>
+        <v>32</v>
       </c>
       <c r="S42">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="T42">
-        <v>1034</v>
+        <v>75</v>
       </c>
       <c r="U42">
-        <v>1498</v>
+        <v>82</v>
       </c>
       <c r="V42">
-        <v>5231</v>
+        <v>222</v>
       </c>
       <c r="W42">
-        <v>0.486</v>
+        <v>0.414</v>
       </c>
       <c r="X42">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>0.794</v>
+        <v>0.746</v>
       </c>
       <c r="Z42">
-        <v>20.6</v>
+        <v>27.1</v>
       </c>
       <c r="AA42">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB42">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AC42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD42" t="s">
         <v>150</v>
@@ -4669,76 +4663,76 @@
         <v>21</v>
       </c>
       <c r="F43">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>714</v>
+        <v>45</v>
       </c>
       <c r="H43">
-        <v>21559</v>
+        <v>455</v>
       </c>
       <c r="I43">
-        <v>3847</v>
+        <v>45</v>
       </c>
       <c r="J43">
-        <v>8797</v>
+        <v>117</v>
       </c>
       <c r="K43">
-        <v>1141</v>
+        <v>5</v>
       </c>
       <c r="L43">
-        <v>2969</v>
+        <v>25</v>
       </c>
       <c r="M43">
-        <v>3561</v>
+        <v>36</v>
       </c>
       <c r="N43">
-        <v>4091</v>
+        <v>55</v>
       </c>
       <c r="O43">
-        <v>401</v>
+        <v>29</v>
       </c>
       <c r="P43">
-        <v>2278</v>
+        <v>58</v>
       </c>
       <c r="Q43">
-        <v>1352</v>
+        <v>22</v>
       </c>
       <c r="R43">
-        <v>643</v>
+        <v>16</v>
       </c>
       <c r="S43">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="T43">
-        <v>1200</v>
+        <v>24</v>
       </c>
       <c r="U43">
-        <v>1361</v>
+        <v>35</v>
       </c>
       <c r="V43">
-        <v>12396</v>
+        <v>131</v>
       </c>
       <c r="W43">
-        <v>0.437</v>
+        <v>0.385</v>
       </c>
       <c r="X43">
-        <v>0.384</v>
+        <v>0.2</v>
       </c>
       <c r="Y43">
-        <v>0.87</v>
+        <v>0.655</v>
       </c>
       <c r="Z43">
-        <v>30.2</v>
+        <v>10.1</v>
       </c>
       <c r="AA43">
-        <v>17.4</v>
+        <v>2.9</v>
       </c>
       <c r="AB43">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="AC43">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="AD43" t="s">
         <v>150</v>
@@ -4761,76 +4755,76 @@
         <v>22</v>
       </c>
       <c r="F44">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>878</v>
+        <v>79</v>
       </c>
       <c r="H44">
-        <v>24539</v>
+        <v>1612</v>
       </c>
       <c r="I44">
-        <v>3790</v>
+        <v>286</v>
       </c>
       <c r="J44">
-        <v>8692</v>
+        <v>628</v>
       </c>
       <c r="K44">
-        <v>1153</v>
+        <v>44</v>
       </c>
       <c r="L44">
-        <v>3134</v>
+        <v>141</v>
       </c>
       <c r="M44">
-        <v>1207</v>
+        <v>73</v>
       </c>
       <c r="N44">
-        <v>1491</v>
+        <v>107</v>
       </c>
       <c r="O44">
-        <v>426</v>
+        <v>52</v>
       </c>
       <c r="P44">
-        <v>2595</v>
+        <v>193</v>
       </c>
       <c r="Q44">
-        <v>4508</v>
+        <v>237</v>
       </c>
       <c r="R44">
-        <v>772</v>
+        <v>78</v>
       </c>
       <c r="S44">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="T44">
-        <v>1831</v>
+        <v>117</v>
       </c>
       <c r="U44">
-        <v>2195</v>
+        <v>199</v>
       </c>
       <c r="V44">
-        <v>9940</v>
+        <v>689</v>
       </c>
       <c r="W44">
-        <v>0.436</v>
+        <v>0.455</v>
       </c>
       <c r="X44">
-        <v>0.368</v>
+        <v>0.312</v>
       </c>
       <c r="Y44">
-        <v>0.8100000000000001</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="Z44">
-        <v>27.9</v>
+        <v>20.4</v>
       </c>
       <c r="AA44">
-        <v>11.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AB44">
+        <v>2.4</v>
+      </c>
+      <c r="AC44">
         <v>3</v>
-      </c>
-      <c r="AC44">
-        <v>5.1</v>
       </c>
       <c r="AD44" t="s">
         <v>150</v>
@@ -4853,76 +4847,76 @@
         <v>25</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>514</v>
+        <v>81</v>
       </c>
       <c r="H45">
-        <v>12013</v>
+        <v>1892</v>
       </c>
       <c r="I45">
-        <v>1932</v>
+        <v>241</v>
       </c>
       <c r="J45">
-        <v>4478</v>
+        <v>601</v>
       </c>
       <c r="K45">
-        <v>587</v>
+        <v>25</v>
       </c>
       <c r="L45">
-        <v>1574</v>
+        <v>97</v>
       </c>
       <c r="M45">
-        <v>964</v>
+        <v>170</v>
       </c>
       <c r="N45">
-        <v>1206</v>
+        <v>222</v>
       </c>
       <c r="O45">
-        <v>354</v>
+        <v>69</v>
       </c>
       <c r="P45">
-        <v>2295</v>
+        <v>386</v>
       </c>
       <c r="Q45">
-        <v>614</v>
+        <v>122</v>
       </c>
       <c r="R45">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="S45">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="T45">
-        <v>724</v>
+        <v>135</v>
       </c>
       <c r="U45">
-        <v>1394</v>
+        <v>208</v>
       </c>
       <c r="V45">
-        <v>5415</v>
+        <v>677</v>
       </c>
       <c r="W45">
-        <v>0.431</v>
+        <v>0.401</v>
       </c>
       <c r="X45">
-        <v>0.373</v>
+        <v>0.258</v>
       </c>
       <c r="Y45">
-        <v>0.799</v>
+        <v>0.766</v>
       </c>
       <c r="Z45">
         <v>23.4</v>
       </c>
       <c r="AA45">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB45">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AC45">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AD45" t="s">
         <v>150</v>
@@ -4945,76 +4939,76 @@
         <v>22</v>
       </c>
       <c r="F46">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>616</v>
+        <v>73</v>
       </c>
       <c r="H46">
-        <v>19055</v>
+        <v>2600</v>
       </c>
       <c r="I46">
-        <v>3004</v>
+        <v>448</v>
       </c>
       <c r="J46">
-        <v>5867</v>
+        <v>1003</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>1362</v>
+        <v>209</v>
       </c>
       <c r="N46">
-        <v>2325</v>
+        <v>343</v>
       </c>
       <c r="O46">
-        <v>1954</v>
+        <v>275</v>
       </c>
       <c r="P46">
-        <v>5967</v>
+        <v>795</v>
       </c>
       <c r="Q46">
-        <v>520</v>
+        <v>64</v>
       </c>
       <c r="R46">
-        <v>414</v>
+        <v>62</v>
       </c>
       <c r="S46">
-        <v>1003</v>
+        <v>125</v>
       </c>
       <c r="T46">
-        <v>984</v>
+        <v>125</v>
       </c>
       <c r="U46">
-        <v>1696</v>
+        <v>214</v>
       </c>
       <c r="V46">
-        <v>7370</v>
+        <v>1105</v>
       </c>
       <c r="W46">
-        <v>0.512</v>
+        <v>0.447</v>
       </c>
       <c r="X46">
         <v>0</v>
       </c>
       <c r="Y46">
-        <v>0.586</v>
+        <v>0.609</v>
       </c>
       <c r="Z46">
-        <v>30.9</v>
+        <v>35.6</v>
       </c>
       <c r="AA46">
-        <v>12</v>
+        <v>15.1</v>
       </c>
       <c r="AB46">
-        <v>9.699999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="AC46">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD46" t="s">
         <v>150</v>
@@ -5037,38 +5031,38 @@
         <v>20</v>
       </c>
       <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
         <v>2</v>
       </c>
-      <c r="G47">
-        <v>6</v>
-      </c>
-      <c r="H47">
-        <v>28</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
         <v>2</v>
       </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>4</v>
-      </c>
-      <c r="N47">
-        <v>8</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>9</v>
-      </c>
       <c r="Q47">
         <v>0</v>
       </c>
@@ -5076,31 +5070,28 @@
         <v>0</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U47">
         <v>4</v>
       </c>
       <c r="V47">
-        <v>4</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y47">
         <v>0.5</v>
       </c>
       <c r="Z47">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="AA47">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="AB47">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -5215,76 +5206,76 @@
         <v>23</v>
       </c>
       <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>23</v>
+      </c>
+      <c r="H49">
+        <v>121</v>
+      </c>
+      <c r="I49">
+        <v>15</v>
+      </c>
+      <c r="J49">
+        <v>29</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
         <v>3</v>
       </c>
-      <c r="G49">
-        <v>136</v>
-      </c>
-      <c r="H49">
-        <v>1436</v>
-      </c>
-      <c r="I49">
-        <v>174</v>
-      </c>
-      <c r="J49">
-        <v>431</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>4</v>
-      </c>
       <c r="M49">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="N49">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="O49">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="P49">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="Q49">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="R49">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="S49">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="T49">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="U49">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="V49">
-        <v>472</v>
+        <v>41</v>
       </c>
       <c r="W49">
-        <v>0.404</v>
+        <v>0.517</v>
       </c>
       <c r="X49">
         <v>0</v>
       </c>
       <c r="Y49">
-        <v>0.752</v>
+        <v>0.733</v>
       </c>
       <c r="Z49">
-        <v>10.6</v>
+        <v>5.3</v>
       </c>
       <c r="AA49">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="AB49">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="AC49">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD49" t="s">
         <v>150</v>
@@ -5307,73 +5298,73 @@
         <v>22</v>
       </c>
       <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>19</v>
+      </c>
+      <c r="H50">
+        <v>132</v>
+      </c>
+      <c r="I50">
+        <v>10</v>
+      </c>
+      <c r="J50">
+        <v>30</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="O50">
+        <v>13</v>
+      </c>
+      <c r="P50">
+        <v>38</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>3</v>
+      </c>
+      <c r="S50">
+        <v>7</v>
+      </c>
+      <c r="T50">
+        <v>9</v>
+      </c>
+      <c r="U50">
+        <v>35</v>
+      </c>
+      <c r="V50">
+        <v>21</v>
+      </c>
+      <c r="W50">
+        <v>0.333</v>
+      </c>
+      <c r="Y50">
+        <v>0.25</v>
+      </c>
+      <c r="Z50">
+        <v>6.9</v>
+      </c>
+      <c r="AA50">
+        <v>1.1</v>
+      </c>
+      <c r="AB50">
         <v>2</v>
       </c>
-      <c r="G50">
-        <v>46</v>
-      </c>
-      <c r="H50">
-        <v>376</v>
-      </c>
-      <c r="I50">
-        <v>25</v>
-      </c>
-      <c r="J50">
-        <v>73</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>4</v>
-      </c>
-      <c r="N50">
-        <v>14</v>
-      </c>
-      <c r="O50">
-        <v>34</v>
-      </c>
-      <c r="P50">
-        <v>109</v>
-      </c>
-      <c r="Q50">
-        <v>14</v>
-      </c>
-      <c r="R50">
-        <v>8</v>
-      </c>
-      <c r="S50">
-        <v>13</v>
-      </c>
-      <c r="T50">
-        <v>23</v>
-      </c>
-      <c r="U50">
-        <v>80</v>
-      </c>
-      <c r="V50">
-        <v>54</v>
-      </c>
-      <c r="W50">
-        <v>0.342</v>
-      </c>
-      <c r="Y50">
-        <v>0.286</v>
-      </c>
-      <c r="Z50">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AA50">
-        <v>1.2</v>
-      </c>
-      <c r="AB50">
-        <v>2.4</v>
-      </c>
       <c r="AC50">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD50" t="s">
         <v>150</v>
@@ -5396,73 +5387,73 @@
         <v>24</v>
       </c>
       <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>31</v>
+      </c>
+      <c r="H51">
+        <v>328</v>
+      </c>
+      <c r="I51">
+        <v>36</v>
+      </c>
+      <c r="J51">
+        <v>81</v>
+      </c>
+      <c r="K51">
         <v>3</v>
       </c>
-      <c r="G51">
-        <v>128</v>
-      </c>
-      <c r="H51">
-        <v>1909</v>
-      </c>
-      <c r="I51">
-        <v>212</v>
-      </c>
-      <c r="J51">
-        <v>508</v>
-      </c>
-      <c r="K51">
-        <v>5</v>
-      </c>
       <c r="L51">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="M51">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="N51">
-        <v>187</v>
+        <v>26</v>
       </c>
       <c r="O51">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="P51">
-        <v>315</v>
+        <v>48</v>
       </c>
       <c r="Q51">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="R51">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="S51">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="T51">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="U51">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="V51">
-        <v>576</v>
+        <v>93</v>
       </c>
       <c r="W51">
-        <v>0.417</v>
+        <v>0.444</v>
       </c>
       <c r="X51">
-        <v>0.161</v>
+        <v>0.375</v>
       </c>
       <c r="Y51">
-        <v>0.786</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="Z51">
-        <v>14.9</v>
+        <v>10.6</v>
       </c>
       <c r="AA51">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="AB51">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AC51">
         <v>1</v>
@@ -5488,76 +5479,76 @@
         <v>23</v>
       </c>
       <c r="F52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>458</v>
+        <v>78</v>
       </c>
       <c r="H52">
-        <v>8458</v>
+        <v>1659</v>
       </c>
       <c r="I52">
-        <v>764</v>
+        <v>161</v>
       </c>
       <c r="J52">
-        <v>1824</v>
+        <v>373</v>
       </c>
       <c r="K52">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="L52">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="M52">
-        <v>286</v>
+        <v>74</v>
       </c>
       <c r="N52">
-        <v>402</v>
+        <v>110</v>
       </c>
       <c r="O52">
-        <v>267</v>
+        <v>59</v>
       </c>
       <c r="P52">
-        <v>947</v>
+        <v>210</v>
       </c>
       <c r="Q52">
-        <v>431</v>
+        <v>109</v>
       </c>
       <c r="R52">
-        <v>263</v>
+        <v>51</v>
       </c>
       <c r="S52">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="T52">
-        <v>217</v>
+        <v>54</v>
       </c>
       <c r="U52">
-        <v>854</v>
+        <v>165</v>
       </c>
       <c r="V52">
-        <v>1863</v>
+        <v>397</v>
       </c>
       <c r="W52">
-        <v>0.419</v>
+        <v>0.432</v>
       </c>
       <c r="X52">
-        <v>0.318</v>
+        <v>0.25</v>
       </c>
       <c r="Y52">
-        <v>0.711</v>
+        <v>0.673</v>
       </c>
       <c r="Z52">
-        <v>18.5</v>
+        <v>21.3</v>
       </c>
       <c r="AA52">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="AB52">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AC52">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="AD52" t="s">
         <v>150</v>
@@ -5580,70 +5571,70 @@
         <v>19</v>
       </c>
       <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>19</v>
+      </c>
+      <c r="H53">
+        <v>104</v>
+      </c>
+      <c r="I53">
+        <v>10</v>
+      </c>
+      <c r="J53">
+        <v>23</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>6</v>
+      </c>
+      <c r="N53">
+        <v>11</v>
+      </c>
+      <c r="O53">
+        <v>6</v>
+      </c>
+      <c r="P53">
+        <v>18</v>
+      </c>
+      <c r="Q53">
         <v>2</v>
       </c>
-      <c r="G53">
-        <v>46</v>
-      </c>
-      <c r="H53">
-        <v>316</v>
-      </c>
-      <c r="I53">
-        <v>28</v>
-      </c>
-      <c r="J53">
-        <v>54</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>14</v>
-      </c>
-      <c r="N53">
-        <v>28</v>
-      </c>
-      <c r="O53">
-        <v>20</v>
-      </c>
-      <c r="P53">
-        <v>67</v>
-      </c>
-      <c r="Q53">
-        <v>3</v>
-      </c>
       <c r="R53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S53">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="T53">
+        <v>12</v>
+      </c>
+      <c r="U53">
+        <v>21</v>
+      </c>
+      <c r="V53">
         <v>26</v>
       </c>
-      <c r="U53">
-        <v>62</v>
-      </c>
-      <c r="V53">
-        <v>70</v>
-      </c>
       <c r="W53">
-        <v>0.519</v>
+        <v>0.435</v>
       </c>
       <c r="Y53">
-        <v>0.5</v>
+        <v>0.545</v>
       </c>
       <c r="Z53">
-        <v>6.9</v>
+        <v>5.5</v>
       </c>
       <c r="AA53">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AB53">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="AC53">
         <v>0.1</v>
@@ -5669,76 +5660,76 @@
         <v>21</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="H54">
-        <v>560</v>
+        <v>433</v>
       </c>
       <c r="I54">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J54">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="K54">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L54">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M54">
+        <v>33</v>
+      </c>
+      <c r="N54">
+        <v>48</v>
+      </c>
+      <c r="O54">
+        <v>19</v>
+      </c>
+      <c r="P54">
+        <v>52</v>
+      </c>
+      <c r="Q54">
         <v>39</v>
       </c>
-      <c r="N54">
-        <v>60</v>
-      </c>
-      <c r="O54">
-        <v>22</v>
-      </c>
-      <c r="P54">
-        <v>66</v>
-      </c>
-      <c r="Q54">
-        <v>48</v>
-      </c>
       <c r="R54">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="S54">
         <v>5</v>
       </c>
       <c r="T54">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="U54">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="V54">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="W54">
-        <v>0.421</v>
+        <v>0.389</v>
       </c>
       <c r="X54">
-        <v>0.308</v>
+        <v>0.273</v>
       </c>
       <c r="Y54">
-        <v>0.65</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="Z54">
-        <v>9.199999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="AA54">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="AB54">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AC54">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD54" t="s">
         <v>150</v>
@@ -5761,76 +5752,76 @@
         <v>19</v>
       </c>
       <c r="F55">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>973</v>
+        <v>76</v>
       </c>
       <c r="H55">
-        <v>26212</v>
+        <v>1859</v>
       </c>
       <c r="I55">
-        <v>4373</v>
+        <v>295</v>
       </c>
       <c r="J55">
-        <v>10445</v>
+        <v>748</v>
       </c>
       <c r="K55">
-        <v>1929</v>
+        <v>81</v>
       </c>
       <c r="L55">
-        <v>5168</v>
+        <v>281</v>
       </c>
       <c r="M55">
-        <v>1456</v>
+        <v>111</v>
       </c>
       <c r="N55">
-        <v>1988</v>
+        <v>161</v>
       </c>
       <c r="O55">
-        <v>494</v>
+        <v>39</v>
       </c>
       <c r="P55">
-        <v>3069</v>
+        <v>152</v>
       </c>
       <c r="Q55">
-        <v>2074</v>
+        <v>142</v>
       </c>
       <c r="R55">
-        <v>974</v>
+        <v>55</v>
       </c>
       <c r="S55">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="T55">
-        <v>1312</v>
+        <v>109</v>
       </c>
       <c r="U55">
-        <v>2189</v>
+        <v>135</v>
       </c>
       <c r="V55">
-        <v>12131</v>
+        <v>782</v>
       </c>
       <c r="W55">
-        <v>0.419</v>
+        <v>0.394</v>
       </c>
       <c r="X55">
-        <v>0.373</v>
+        <v>0.288</v>
       </c>
       <c r="Y55">
-        <v>0.732</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="Z55">
-        <v>26.9</v>
+        <v>24.5</v>
       </c>
       <c r="AA55">
-        <v>12.5</v>
+        <v>10.3</v>
       </c>
       <c r="AB55">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="AC55">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AD55" t="s">
         <v>150</v>
@@ -5853,76 +5844,76 @@
         <v>19</v>
       </c>
       <c r="F56">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>894</v>
+        <v>74</v>
       </c>
       <c r="H56">
-        <v>29000</v>
+        <v>2050</v>
       </c>
       <c r="I56">
-        <v>5089</v>
+        <v>274</v>
       </c>
       <c r="J56">
-        <v>11247</v>
+        <v>602</v>
       </c>
       <c r="K56">
-        <v>450</v>
+        <v>4</v>
       </c>
       <c r="L56">
-        <v>1578</v>
+        <v>23</v>
       </c>
       <c r="M56">
-        <v>2368</v>
+        <v>163</v>
       </c>
       <c r="N56">
-        <v>3748</v>
+        <v>237</v>
       </c>
       <c r="O56">
-        <v>1717</v>
+        <v>147</v>
       </c>
       <c r="P56">
-        <v>6653</v>
+        <v>457</v>
       </c>
       <c r="Q56">
-        <v>2789</v>
+        <v>127</v>
       </c>
       <c r="R56">
-        <v>1083</v>
+        <v>59</v>
       </c>
       <c r="S56">
-        <v>1713</v>
+        <v>144</v>
       </c>
       <c r="T56">
-        <v>2197</v>
+        <v>135</v>
       </c>
       <c r="U56">
-        <v>2461</v>
+        <v>157</v>
       </c>
       <c r="V56">
-        <v>12996</v>
+        <v>715</v>
       </c>
       <c r="W56">
-        <v>0.452</v>
+        <v>0.455</v>
       </c>
       <c r="X56">
-        <v>0.285</v>
+        <v>0.174</v>
       </c>
       <c r="Y56">
-        <v>0.632</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="Z56">
-        <v>32.4</v>
+        <v>27.7</v>
       </c>
       <c r="AA56">
-        <v>14.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AB56">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC56">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="AD56" t="s">
         <v>150</v>
@@ -5945,76 +5936,76 @@
         <v>21</v>
       </c>
       <c r="F57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>211</v>
+        <v>68</v>
       </c>
       <c r="H57">
-        <v>3540</v>
+        <v>906</v>
       </c>
       <c r="I57">
-        <v>489</v>
+        <v>122</v>
       </c>
       <c r="J57">
-        <v>1116</v>
+        <v>328</v>
       </c>
       <c r="K57">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="L57">
-        <v>281</v>
+        <v>85</v>
       </c>
       <c r="M57">
-        <v>263</v>
+        <v>64</v>
       </c>
       <c r="N57">
-        <v>376</v>
+        <v>96</v>
       </c>
       <c r="O57">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="P57">
-        <v>491</v>
+        <v>121</v>
       </c>
       <c r="Q57">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="R57">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="S57">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="T57">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="U57">
-        <v>328</v>
+        <v>116</v>
       </c>
       <c r="V57">
-        <v>1333</v>
+        <v>338</v>
       </c>
       <c r="W57">
-        <v>0.438</v>
+        <v>0.372</v>
       </c>
       <c r="X57">
-        <v>0.327</v>
+        <v>0.353</v>
       </c>
       <c r="Y57">
-        <v>0.699</v>
+        <v>0.667</v>
       </c>
       <c r="Z57">
-        <v>16.8</v>
+        <v>13.3</v>
       </c>
       <c r="AA57">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="AB57">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="AC57">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="AD57" t="s">
         <v>150</v>
@@ -6037,19 +6028,19 @@
         <v>23</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="H58">
-        <v>879</v>
+        <v>255</v>
       </c>
       <c r="I58">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="J58">
-        <v>190</v>
+        <v>58</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -6058,52 +6049,52 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="N58">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="O58">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="P58">
-        <v>214</v>
+        <v>57</v>
       </c>
       <c r="Q58">
+        <v>2</v>
+      </c>
+      <c r="R58">
         <v>12</v>
       </c>
-      <c r="R58">
-        <v>34</v>
-      </c>
       <c r="S58">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="T58">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="U58">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="V58">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="W58">
-        <v>0.416</v>
+        <v>0.397</v>
       </c>
       <c r="Y58">
-        <v>0.678</v>
+        <v>0.593</v>
       </c>
       <c r="Z58">
-        <v>11.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA58">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="AB58">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="AC58">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD58" t="s">
         <v>150</v>
@@ -6126,76 +6117,76 @@
         <v>27</v>
       </c>
       <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>9</v>
+      </c>
+      <c r="H59">
+        <v>32</v>
+      </c>
+      <c r="I59">
         <v>3</v>
       </c>
-      <c r="G59">
-        <v>60</v>
-      </c>
-      <c r="H59">
-        <v>407</v>
-      </c>
-      <c r="I59">
-        <v>58</v>
-      </c>
       <c r="J59">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59">
         <v>4</v>
       </c>
-      <c r="L59">
-        <v>16</v>
-      </c>
-      <c r="M59">
-        <v>23</v>
-      </c>
-      <c r="N59">
-        <v>45</v>
-      </c>
-      <c r="O59">
-        <v>43</v>
-      </c>
       <c r="P59">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="R59">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T59">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U59">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="V59">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="W59">
-        <v>0.414</v>
+        <v>0.3</v>
       </c>
       <c r="X59">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Y59">
-        <v>0.511</v>
+        <v>0.5</v>
       </c>
       <c r="Z59">
-        <v>6.8</v>
+        <v>3.6</v>
       </c>
       <c r="AA59">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="AB59">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="AC59">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AD59" t="s">
         <v>150</v>
@@ -6218,73 +6209,73 @@
         <v>19</v>
       </c>
       <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>16</v>
+      </c>
+      <c r="H60">
+        <v>72</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <v>11</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>5</v>
+      </c>
+      <c r="N60">
+        <v>9</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>5</v>
+      </c>
+      <c r="Q60">
+        <v>2</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>7</v>
+      </c>
+      <c r="T60">
         <v>4</v>
       </c>
-      <c r="G60">
-        <v>97</v>
-      </c>
-      <c r="H60">
-        <v>1500</v>
-      </c>
-      <c r="I60">
-        <v>172</v>
-      </c>
-      <c r="J60">
-        <v>340</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>72</v>
-      </c>
-      <c r="N60">
-        <v>118</v>
-      </c>
-      <c r="O60">
-        <v>122</v>
-      </c>
-      <c r="P60">
-        <v>376</v>
-      </c>
-      <c r="Q60">
-        <v>20</v>
-      </c>
-      <c r="R60">
-        <v>26</v>
-      </c>
-      <c r="S60">
-        <v>86</v>
-      </c>
-      <c r="T60">
-        <v>71</v>
-      </c>
       <c r="U60">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="V60">
-        <v>416</v>
+        <v>15</v>
       </c>
       <c r="W60">
-        <v>0.506</v>
+        <v>0.455</v>
       </c>
       <c r="Y60">
-        <v>0.61</v>
+        <v>0.556</v>
       </c>
       <c r="Z60">
-        <v>15.5</v>
+        <v>4.5</v>
       </c>
       <c r="AA60">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="AB60">
-        <v>3.9</v>
+        <v>0.3</v>
       </c>
       <c r="AC60">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD60" t="s">
         <v>150</v>
@@ -6399,76 +6390,76 @@
         <v>19</v>
       </c>
       <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>68</v>
+      </c>
+      <c r="H62">
+        <v>1330</v>
+      </c>
+      <c r="I62">
+        <v>169</v>
+      </c>
+      <c r="J62">
+        <v>430</v>
+      </c>
+      <c r="K62">
+        <v>17</v>
+      </c>
+      <c r="L62">
+        <v>69</v>
+      </c>
+      <c r="M62">
+        <v>105</v>
+      </c>
+      <c r="N62">
+        <v>133</v>
+      </c>
+      <c r="O62">
         <v>10</v>
       </c>
-      <c r="G62">
-        <v>564</v>
-      </c>
-      <c r="H62">
-        <v>12149</v>
-      </c>
-      <c r="I62">
-        <v>1542</v>
-      </c>
-      <c r="J62">
-        <v>3953</v>
-      </c>
-      <c r="K62">
-        <v>361</v>
-      </c>
-      <c r="L62">
-        <v>1133</v>
-      </c>
-      <c r="M62">
-        <v>738</v>
-      </c>
-      <c r="N62">
-        <v>950</v>
-      </c>
-      <c r="O62">
-        <v>151</v>
-      </c>
       <c r="P62">
-        <v>898</v>
+        <v>104</v>
       </c>
       <c r="Q62">
-        <v>1960</v>
+        <v>224</v>
       </c>
       <c r="R62">
-        <v>413</v>
+        <v>35</v>
       </c>
       <c r="S62">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="T62">
-        <v>859</v>
+        <v>125</v>
       </c>
       <c r="U62">
-        <v>1196</v>
+        <v>120</v>
       </c>
       <c r="V62">
-        <v>4183</v>
+        <v>460</v>
       </c>
       <c r="W62">
-        <v>0.39</v>
+        <v>0.393</v>
       </c>
       <c r="X62">
-        <v>0.319</v>
+        <v>0.246</v>
       </c>
       <c r="Y62">
-        <v>0.777</v>
+        <v>0.789</v>
       </c>
       <c r="Z62">
-        <v>21.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA62">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AB62">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AC62">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AD62" t="s">
         <v>150</v>
@@ -6491,76 +6482,76 @@
         <v>29</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="H63">
-        <v>529</v>
+        <v>356</v>
       </c>
       <c r="I63">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="J63">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="K63">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="L63">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="M63">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N63">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O63">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="P63">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="Q63">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="R63">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T63">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="U63">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="V63">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="W63">
-        <v>0.338</v>
+        <v>0.362</v>
       </c>
       <c r="X63">
         <v>0.304</v>
       </c>
       <c r="Y63">
-        <v>0.846</v>
+        <v>0.778</v>
       </c>
       <c r="Z63">
-        <v>10</v>
+        <v>14.2</v>
       </c>
       <c r="AA63">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="AB63">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AC63">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD63" t="s">
         <v>150</v>
@@ -6583,73 +6574,73 @@
         <v>24</v>
       </c>
       <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>11</v>
+      </c>
+      <c r="H64">
+        <v>117</v>
+      </c>
+      <c r="I64">
+        <v>12</v>
+      </c>
+      <c r="J64">
+        <v>20</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
         <v>2</v>
       </c>
-      <c r="G64">
-        <v>33</v>
-      </c>
-      <c r="H64">
-        <v>267</v>
-      </c>
-      <c r="I64">
-        <v>22</v>
-      </c>
-      <c r="J64">
-        <v>39</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>10</v>
-      </c>
       <c r="N64">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O64">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="P64">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Q64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R64">
         <v>4</v>
       </c>
       <c r="S64">
+        <v>4</v>
+      </c>
+      <c r="T64">
         <v>7</v>
       </c>
-      <c r="T64">
-        <v>14</v>
-      </c>
       <c r="U64">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="V64">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="W64">
-        <v>0.5639999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="Y64">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="Z64">
-        <v>8.1</v>
+        <v>10.6</v>
       </c>
       <c r="AA64">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="AB64">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="AC64">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AD64" t="s">
         <v>150</v>
@@ -6672,76 +6663,76 @@
         <v>22</v>
       </c>
       <c r="F65">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>831</v>
+        <v>80</v>
       </c>
       <c r="H65">
-        <v>18185</v>
+        <v>1149</v>
       </c>
       <c r="I65">
-        <v>2740</v>
+        <v>173</v>
       </c>
       <c r="J65">
-        <v>5922</v>
+        <v>390</v>
       </c>
       <c r="K65">
-        <v>465</v>
+        <v>58</v>
       </c>
       <c r="L65">
-        <v>1334</v>
+        <v>142</v>
       </c>
       <c r="M65">
-        <v>1007</v>
+        <v>67</v>
       </c>
       <c r="N65">
-        <v>1209</v>
+        <v>89</v>
       </c>
       <c r="O65">
-        <v>308</v>
+        <v>16</v>
       </c>
       <c r="P65">
-        <v>1712</v>
+        <v>83</v>
       </c>
       <c r="Q65">
-        <v>2858</v>
+        <v>150</v>
       </c>
       <c r="R65">
-        <v>576</v>
+        <v>41</v>
       </c>
       <c r="S65">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="T65">
-        <v>1179</v>
+        <v>77</v>
       </c>
       <c r="U65">
-        <v>1275</v>
+        <v>96</v>
       </c>
       <c r="V65">
-        <v>6952</v>
+        <v>471</v>
       </c>
       <c r="W65">
-        <v>0.463</v>
+        <v>0.444</v>
       </c>
       <c r="X65">
-        <v>0.349</v>
+        <v>0.408</v>
       </c>
       <c r="Y65">
-        <v>0.833</v>
+        <v>0.753</v>
       </c>
       <c r="Z65">
-        <v>21.9</v>
+        <v>14.4</v>
       </c>
       <c r="AA65">
-        <v>8.4</v>
+        <v>5.9</v>
       </c>
       <c r="AB65">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="AC65">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="AD65" t="s">
         <v>150</v>
@@ -6764,76 +6755,76 @@
         <v>22</v>
       </c>
       <c r="F66">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>627</v>
+        <v>54</v>
       </c>
       <c r="H66">
-        <v>15051</v>
+        <v>863</v>
       </c>
       <c r="I66">
-        <v>1804</v>
+        <v>99</v>
       </c>
       <c r="J66">
-        <v>3534</v>
+        <v>193</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="M66">
-        <v>952</v>
+        <v>68</v>
       </c>
       <c r="N66">
-        <v>1509</v>
+        <v>127</v>
       </c>
       <c r="O66">
-        <v>1504</v>
+        <v>109</v>
       </c>
       <c r="P66">
-        <v>4511</v>
+        <v>257</v>
       </c>
       <c r="Q66">
-        <v>734</v>
+        <v>27</v>
       </c>
       <c r="R66">
-        <v>537</v>
+        <v>41</v>
       </c>
       <c r="S66">
-        <v>405</v>
+        <v>38</v>
       </c>
       <c r="T66">
-        <v>592</v>
+        <v>26</v>
       </c>
       <c r="U66">
-        <v>1630</v>
+        <v>122</v>
       </c>
       <c r="V66">
-        <v>4561</v>
+        <v>266</v>
       </c>
       <c r="W66">
-        <v>0.51</v>
+        <v>0.513</v>
       </c>
       <c r="X66">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="Y66">
-        <v>0.631</v>
+        <v>0.535</v>
       </c>
       <c r="Z66">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AA66">
-        <v>7.3</v>
+        <v>4.9</v>
       </c>
       <c r="AB66">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="AC66">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AD66" t="s">
         <v>150</v>
@@ -6856,19 +6847,19 @@
         <v>23</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="H67">
-        <v>1111</v>
+        <v>705</v>
       </c>
       <c r="I67">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="J67">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -6877,55 +6868,55 @@
         <v>3</v>
       </c>
       <c r="M67">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="N67">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="O67">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="P67">
-        <v>261</v>
+        <v>175</v>
       </c>
       <c r="Q67">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="R67">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="S67">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="T67">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="U67">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="V67">
-        <v>285</v>
+        <v>212</v>
       </c>
       <c r="W67">
-        <v>0.408</v>
+        <v>0.412</v>
       </c>
       <c r="X67">
         <v>0</v>
       </c>
       <c r="Y67">
-        <v>0.58</v>
+        <v>0.64</v>
       </c>
       <c r="Z67">
-        <v>12.8</v>
+        <v>15.3</v>
       </c>
       <c r="AA67">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="AB67">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="AC67">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AD67" t="s">
         <v>150</v>
@@ -6948,76 +6939,76 @@
         <v>20</v>
       </c>
       <c r="F68">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>581</v>
+        <v>35</v>
       </c>
       <c r="H68">
-        <v>8908</v>
+        <v>403</v>
       </c>
       <c r="I68">
-        <v>1075</v>
+        <v>33</v>
       </c>
       <c r="J68">
-        <v>2757</v>
+        <v>117</v>
       </c>
       <c r="K68">
-        <v>533</v>
+        <v>17</v>
       </c>
       <c r="L68">
-        <v>1451</v>
+        <v>63</v>
       </c>
       <c r="M68">
-        <v>411</v>
+        <v>18</v>
       </c>
       <c r="N68">
-        <v>479</v>
+        <v>19</v>
       </c>
       <c r="O68">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="P68">
-        <v>1093</v>
+        <v>62</v>
       </c>
       <c r="Q68">
-        <v>748</v>
+        <v>51</v>
       </c>
       <c r="R68">
-        <v>336</v>
+        <v>12</v>
       </c>
       <c r="S68">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="T68">
-        <v>328</v>
+        <v>15</v>
       </c>
       <c r="U68">
-        <v>880</v>
+        <v>41</v>
       </c>
       <c r="V68">
-        <v>3094</v>
+        <v>101</v>
       </c>
       <c r="W68">
-        <v>0.39</v>
+        <v>0.282</v>
       </c>
       <c r="X68">
-        <v>0.367</v>
+        <v>0.27</v>
       </c>
       <c r="Y68">
-        <v>0.858</v>
+        <v>0.947</v>
       </c>
       <c r="Z68">
-        <v>15.3</v>
+        <v>11.5</v>
       </c>
       <c r="AA68">
-        <v>5.3</v>
+        <v>2.9</v>
       </c>
       <c r="AB68">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AC68">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AD68" t="s">
         <v>150</v>
@@ -7040,76 +7031,76 @@
         <v>21</v>
       </c>
       <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>39</v>
+      </c>
+      <c r="H69">
+        <v>507</v>
+      </c>
+      <c r="I69">
+        <v>66</v>
+      </c>
+      <c r="J69">
+        <v>155</v>
+      </c>
+      <c r="K69">
+        <v>24</v>
+      </c>
+      <c r="L69">
+        <v>67</v>
+      </c>
+      <c r="M69">
+        <v>19</v>
+      </c>
+      <c r="N69">
+        <v>27</v>
+      </c>
+      <c r="O69">
+        <v>14</v>
+      </c>
+      <c r="P69">
+        <v>65</v>
+      </c>
+      <c r="Q69">
+        <v>53</v>
+      </c>
+      <c r="R69">
+        <v>21</v>
+      </c>
+      <c r="S69">
         <v>8</v>
       </c>
-      <c r="G69">
-        <v>432</v>
-      </c>
-      <c r="H69">
-        <v>11842</v>
-      </c>
-      <c r="I69">
-        <v>1601</v>
-      </c>
-      <c r="J69">
-        <v>3571</v>
-      </c>
-      <c r="K69">
-        <v>376</v>
-      </c>
-      <c r="L69">
-        <v>1012</v>
-      </c>
-      <c r="M69">
-        <v>620</v>
-      </c>
-      <c r="N69">
-        <v>751</v>
-      </c>
-      <c r="O69">
-        <v>213</v>
-      </c>
-      <c r="P69">
-        <v>1265</v>
-      </c>
-      <c r="Q69">
-        <v>1540</v>
-      </c>
-      <c r="R69">
-        <v>465</v>
-      </c>
-      <c r="S69">
-        <v>179</v>
-      </c>
       <c r="T69">
-        <v>702</v>
+        <v>24</v>
       </c>
       <c r="U69">
-        <v>828</v>
+        <v>69</v>
       </c>
       <c r="V69">
-        <v>4198</v>
+        <v>175</v>
       </c>
       <c r="W69">
-        <v>0.448</v>
+        <v>0.426</v>
       </c>
       <c r="X69">
-        <v>0.372</v>
+        <v>0.358</v>
       </c>
       <c r="Y69">
-        <v>0.826</v>
+        <v>0.704</v>
       </c>
       <c r="Z69">
-        <v>27.4</v>
+        <v>13</v>
       </c>
       <c r="AA69">
-        <v>9.699999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="AB69">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="AC69">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="AD69" t="s">
         <v>150</v>
@@ -7132,76 +7123,76 @@
         <v>25</v>
       </c>
       <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>29</v>
+      </c>
+      <c r="H70">
+        <v>520</v>
+      </c>
+      <c r="I70">
+        <v>73</v>
+      </c>
+      <c r="J70">
+        <v>168</v>
+      </c>
+      <c r="K70">
+        <v>16</v>
+      </c>
+      <c r="L70">
+        <v>59</v>
+      </c>
+      <c r="M70">
+        <v>21</v>
+      </c>
+      <c r="N70">
+        <v>34</v>
+      </c>
+      <c r="O70">
+        <v>29</v>
+      </c>
+      <c r="P70">
+        <v>66</v>
+      </c>
+      <c r="Q70">
+        <v>26</v>
+      </c>
+      <c r="R70">
+        <v>22</v>
+      </c>
+      <c r="S70">
         <v>10</v>
       </c>
-      <c r="G70">
-        <v>582</v>
-      </c>
-      <c r="H70">
-        <v>10991</v>
-      </c>
-      <c r="I70">
-        <v>1344</v>
-      </c>
-      <c r="J70">
-        <v>3157</v>
-      </c>
-      <c r="K70">
-        <v>205</v>
-      </c>
-      <c r="L70">
-        <v>627</v>
-      </c>
-      <c r="M70">
-        <v>711</v>
-      </c>
-      <c r="N70">
-        <v>908</v>
-      </c>
-      <c r="O70">
-        <v>441</v>
-      </c>
-      <c r="P70">
-        <v>1362</v>
-      </c>
-      <c r="Q70">
-        <v>796</v>
-      </c>
-      <c r="R70">
-        <v>431</v>
-      </c>
-      <c r="S70">
-        <v>130</v>
-      </c>
       <c r="T70">
-        <v>524</v>
+        <v>16</v>
       </c>
       <c r="U70">
-        <v>945</v>
+        <v>55</v>
       </c>
       <c r="V70">
-        <v>3604</v>
+        <v>183</v>
       </c>
       <c r="W70">
-        <v>0.426</v>
+        <v>0.435</v>
       </c>
       <c r="X70">
-        <v>0.327</v>
+        <v>0.271</v>
       </c>
       <c r="Y70">
-        <v>0.783</v>
+        <v>0.618</v>
       </c>
       <c r="Z70">
-        <v>18.9</v>
+        <v>17.9</v>
       </c>
       <c r="AA70">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB70">
         <v>2.3</v>
       </c>
       <c r="AC70">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AD70" t="s">
         <v>150</v>
@@ -7224,76 +7215,76 @@
         <v>19</v>
       </c>
       <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71">
+        <v>27</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+      <c r="J71">
         <v>11</v>
       </c>
-      <c r="G71">
-        <v>549</v>
-      </c>
-      <c r="H71">
-        <v>12280</v>
-      </c>
-      <c r="I71">
-        <v>1657</v>
-      </c>
-      <c r="J71">
-        <v>3908</v>
-      </c>
       <c r="K71">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>1691</v>
+        <v>4</v>
       </c>
       <c r="M71">
-        <v>666</v>
+        <v>1</v>
       </c>
       <c r="N71">
-        <v>826</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="P71">
-        <v>2093</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>850</v>
+        <v>3</v>
       </c>
       <c r="R71">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="S71">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="T71">
-        <v>475</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>790</v>
+        <v>2</v>
       </c>
       <c r="V71">
-        <v>4597</v>
+        <v>7</v>
       </c>
       <c r="W71">
-        <v>0.424</v>
+        <v>0.273</v>
       </c>
       <c r="X71">
-        <v>0.365</v>
+        <v>0</v>
       </c>
       <c r="Y71">
-        <v>0.806</v>
+        <v>1</v>
       </c>
       <c r="Z71">
-        <v>22.4</v>
+        <v>9</v>
       </c>
       <c r="AA71">
-        <v>8.4</v>
+        <v>2.3</v>
       </c>
       <c r="AB71">
-        <v>3.8</v>
+        <v>0.3</v>
       </c>
       <c r="AC71">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AD71" t="s">
         <v>150</v>
